--- a/output/endemo2_population_prognosis.xlsx
+++ b/output/endemo2_population_prognosis.xlsx
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9762334.199999999</v>
+        <v>4830392</v>
       </c>
     </row>
     <row r="8">
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>122103780.19</v>
+        <v>66918941</v>
       </c>
     </row>
     <row r="11">
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>12712971.1</v>
+        <v>9778371</v>
       </c>
     </row>
     <row r="16">
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>52375422.34</v>
+        <v>37976687</v>
       </c>
     </row>
     <row r="19">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>70634115.31</v>
+        <v>66273576</v>
       </c>
     </row>
     <row r="26">
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5234532.63</v>
+        <v>5295619</v>
       </c>
     </row>
     <row r="27">
@@ -1141,7 +1141,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5658982.93</v>
+        <v>2808901</v>
       </c>
     </row>
     <row r="35">
@@ -1165,7 +1165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B343"/>
+  <dimension ref="A1:B305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2456,2150 +2456,1770 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>FR21</t>
+          <t>FRB0</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1334223.67</v>
+        <v>2570916</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>FR22</t>
+          <t>FRC1</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1948448.57</v>
+        <v>1626272</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>FR23</t>
+          <t>FRC2</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1871273.82</v>
+        <v>1176318</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>FR24</t>
+          <t>FRD1</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>2608811.51</v>
+        <v>1469690</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>FR25</t>
+          <t>FRD2</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1496244.02</v>
+        <v>1852893</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>FR26</t>
+          <t>FRE1</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1646583.14</v>
+        <v>4063653</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>FR30</t>
+          <t>FRE2</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>4079384.03</v>
+        <v>1928795</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>FR41</t>
+          <t>FRF1</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>2351948.83</v>
+        <v>1892251</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>FR42</t>
+          <t>FRF2</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1922485.54</v>
+        <v>1321546</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>FR43</t>
+          <t>FRF3</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1192597.35</v>
+        <v>2324619</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>FR51</t>
+          <t>FRG0</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>3786740.24</v>
+        <v>3772852</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>FR52</t>
+          <t>FRH0</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>3354416.02</v>
+        <v>3326992</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>FR53</t>
+          <t>FRI1</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1830904.88</v>
+        <v>3432480</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>FR61</t>
+          <t>FRI2</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>3422964.02</v>
+        <v>732313</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>FR62</t>
+          <t>FRI3</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>3066593.65</v>
+        <v>1807357</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>FR63</t>
+          <t>FRJ1</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>742190.21</v>
+        <v>2825236</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>FR71</t>
+          <t>FRJ2</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>6615923.38</v>
+        <v>3047653</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>FR72</t>
+          <t>FRK1</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1363163.87</v>
+        <v>1363209</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>FR81</t>
+          <t>FRK2</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>2852675.65</v>
+        <v>6613961</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>FR82</t>
+          <t>FRL0</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>5129304.9</v>
+        <v>5039966</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>FR83</t>
+          <t>FRM0</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>335149.71</v>
+        <v>338273</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>FRA1</t>
+          <t>FRY1</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>427189.3</v>
+        <v>420941</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>FRA2</t>
+          <t>FRY2</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>384647.81</v>
+        <v>368050</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>FRA3</t>
+          <t>FRY3</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>280199.18</v>
+        <v>276127</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>FRA4</t>
+          <t>FRY4</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>882269.89</v>
+        <v>856148</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>FRA5</t>
+          <t>FRY5</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>258506</v>
+        <v>259906</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>FRB0</t>
+          <t>HR03</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>2570916</v>
+        <v>1378339</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>FRC1</t>
+          <t>HR04</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1626272</v>
+        <v>2727154</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>FRC2</t>
+          <t>HU11</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1176318</v>
+        <v>1749734</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>FRD1</t>
+          <t>HU12</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1469690</v>
+        <v>1261864</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>FRD2</t>
+          <t>HU21</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1852893</v>
+        <v>1055570</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>FRE1</t>
+          <t>HU22</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>4063653</v>
+        <v>985457</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>FRE2</t>
+          <t>HU23</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>1928795</v>
+        <v>886840</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>FRF1</t>
+          <t>HU31</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1892251</v>
+        <v>1134945</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>FRF2</t>
+          <t>HU32</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1321546</v>
+        <v>1460096</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>FRF3</t>
+          <t>HU33</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>2324619</v>
+        <v>1243865</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>FRG0</t>
+          <t>IE04</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>3772852</v>
+        <v>856252</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>FRH0</t>
+          <t>IE05</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>3326992</v>
+        <v>1604865</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>FRI1</t>
+          <t>IE06</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>3432480</v>
+        <v>2369275</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>FRI2</t>
+          <t>IS00</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>732313</v>
+        <v>348450</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>FRI3</t>
+          <t>ITC1</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1807357</v>
+        <v>4375865</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>FRJ1</t>
+          <t>ITC2</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>2825236</v>
+        <v>126202</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>FRJ2</t>
+          <t>ITC3</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>3047653</v>
+        <v>1556981</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>FRK1</t>
+          <t>ITC4</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>1363209</v>
+        <v>10036258</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>FRK2</t>
+          <t>ITF1</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>6613961</v>
+        <v>1315196</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>FRL0</t>
+          <t>ITF2</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>5039966</v>
+        <v>308493</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>FRM0</t>
+          <t>ITF3</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>338273</v>
+        <v>5826860</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>FRY1</t>
+          <t>ITF4</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>420941</v>
+        <v>4048242</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>FRY2</t>
+          <t>ITF5</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>368050</v>
+        <v>567118</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>FRY3</t>
+          <t>ITF6</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>276127</v>
+        <v>1956687</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>FRY4</t>
+          <t>ITG1</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>856148</v>
+        <v>5026989</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>FRY5</t>
+          <t>ITG2</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>259906</v>
+        <v>1648176</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>HR03</t>
+          <t>ITH1</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>1378339</v>
+        <v>527750</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>HR04</t>
+          <t>ITH2</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>2727154</v>
+        <v>539898</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>HU10</t>
+          <t>ITH3</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>2934600.1</v>
+        <v>4905037</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>HU11</t>
+          <t>ITH4</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1749734</v>
+        <v>1215538</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>HU12</t>
+          <t>ITH5</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>1261864</v>
+        <v>4452629</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>HU21</t>
+          <t>ITI1</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>1055570</v>
+        <v>3736968</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>HU22</t>
+          <t>ITI2</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>985457</v>
+        <v>884640</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>HU23</t>
+          <t>ITI3</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>886840</v>
+        <v>1531753</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>HU31</t>
+          <t>ITI4</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>1134945</v>
+        <v>5896693</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>HU32</t>
+          <t>LT01</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>1460096</v>
+        <v>805367</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>HU33</t>
+          <t>LT02</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>1243865</v>
+        <v>2003534</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>IE01</t>
+          <t>LU00</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>1329219.89</v>
+        <v>602005</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>IE02</t>
+          <t>LV00</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>3602722.31</v>
+        <v>1934379</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>IE04</t>
+          <t>ME00</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>856252</v>
+        <v>622359</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>IE05</t>
+          <t>MK00</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>1604865</v>
+        <v>2075108</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>IE06</t>
+          <t>NL11</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>2369275</v>
+        <v>582944</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>IS00</t>
+          <t>NL12</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>348450</v>
+        <v>647268</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ITC1</t>
+          <t>NL13</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>4375865</v>
+        <v>492100</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>ITC2</t>
+          <t>NL21</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>126202</v>
+        <v>1151501</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ITC3</t>
+          <t>NL22</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>1556981</v>
+        <v>2060103</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ITC4</t>
+          <t>NL23</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>10036258</v>
+        <v>411670</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>ITF1</t>
+          <t>NL31</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>1315196</v>
+        <v>1295484</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>ITF2</t>
+          <t>NL32</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>308493</v>
+        <v>2831182</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>ITF3</t>
+          <t>NL33</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>5826860</v>
+        <v>3681044</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>ITF4</t>
+          <t>NL34</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>4048242</v>
+        <v>382304</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>ITF5</t>
+          <t>NL41</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>567118</v>
+        <v>2528286</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>ITF6</t>
+          <t>NL42</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>1956687</v>
+        <v>1117198</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>ITG1</t>
+          <t>NO01</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>5026989</v>
+        <v>1287495</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>ITG2</t>
+          <t>NO02</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>1648176</v>
+        <v>386836</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>ITH1</t>
+          <t>NO03</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>527750</v>
+        <v>999639</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>ITH2</t>
+          <t>NO04</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>539898</v>
+        <v>777279</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>ITH3</t>
+          <t>NO05</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>4905037</v>
+        <v>899627</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>ITH4</t>
+          <t>NO06</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>1215538</v>
+        <v>458742</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>ITH5</t>
+          <t>NO07</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>4452629</v>
+        <v>486001</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>ITI1</t>
+          <t>PL21</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>3736968</v>
+        <v>3349498</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>ITI2</t>
+          <t>PL22</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>884640</v>
+        <v>4500863</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>ITI3</t>
+          <t>PL41</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>1531753</v>
+        <v>3465605</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>ITI4</t>
+          <t>PL42</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>5896693</v>
+        <v>1678873</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>LT00</t>
+          <t>PL43</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>2850081.93</v>
+        <v>1004127</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>LT01</t>
+          <t>PL51</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>805367</v>
+        <v>2865358</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>LT02</t>
+          <t>PL52</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>2003534</v>
+        <v>948808</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>LU00</t>
+          <t>PL61</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>602005</v>
+        <v>2059748</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>LV00</t>
+          <t>PL62</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>1934379</v>
+        <v>1408415</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>ME00</t>
+          <t>PL63</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>622359</v>
+        <v>2294926</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>MK00</t>
+          <t>PL71</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>2075108</v>
+        <v>2462448</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>NL11</t>
+          <t>PL72</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>582944</v>
+        <v>1232016</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>NL12</t>
+          <t>PL81</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>647268</v>
+        <v>2105442</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>NL13</t>
+          <t>PL82</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>492100</v>
+        <v>2085877</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>NL21</t>
+          <t>PL84</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>1151501</v>
+        <v>1154856</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>NL22</t>
+          <t>PL91</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>2060103</v>
+        <v>3025034</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>NL23</t>
+          <t>PL92</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>411670</v>
+        <v>2334793</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>NL31</t>
+          <t>PT11</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>1295484</v>
+        <v>3576205</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>NL32</t>
+          <t>PT15</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>2831182</v>
+        <v>439617</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>NL33</t>
+          <t>PT16</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>3681044</v>
+        <v>2231346</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>NL34</t>
+          <t>PT17</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>382304</v>
+        <v>2833679</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>NL41</t>
+          <t>PT18</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>2528286</v>
+        <v>711950</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>NL42</t>
+          <t>PT20</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>1117198</v>
+        <v>243862</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>NO01</t>
+          <t>PT30</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>1257650.46</v>
+        <v>254368</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>NO02</t>
+          <t>RO11</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>386836</v>
+        <v>2560822</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>NO03</t>
+          <t>RO12</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>988346.33</v>
+        <v>2325747</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>NO04</t>
+          <t>RO21</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>770613</v>
+        <v>3221183</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>NO05</t>
+          <t>RO22</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>886343.84</v>
+        <v>2421957</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>NO06</t>
+          <t>RO31</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>458742</v>
+        <v>2965205</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>NO07</t>
+          <t>RO32</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>486001</v>
+        <v>2301255</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>PL11</t>
+          <t>RO41</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>2461276.73</v>
+        <v>1949940</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>PL12</t>
+          <t>RO42</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>5327438.74</v>
+        <v>1784522</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>PL21</t>
+          <t>RS11</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>3349498</v>
+        <v>1688466</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>PL22</t>
+          <t>RS12</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>4500863</v>
+        <v>1866815</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>PL31</t>
+          <t>RS21</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>2116817.39</v>
+        <v>1932780</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>PL32</t>
+          <t>RS22</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>2090947.81</v>
+        <v>1513383</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>PL33</t>
+          <t>SE11</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>1239581.75</v>
+        <v>2308143</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>PL34</t>
+          <t>SE12</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>1162672.93</v>
+        <v>1687810</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>PL41</t>
+          <t>SE21</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>3465605</v>
+        <v>856887</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>PL42</t>
+          <t>SE22</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>1678873</v>
+        <v>1504060</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>PL43</t>
+          <t>SE23</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>1004127</v>
+        <v>2015607</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>PL51</t>
+          <t>SE31</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>2865358</v>
+        <v>852201</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>PL52</t>
+          <t>SE32</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>948808</v>
+        <v>375774</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>PL61</t>
+          <t>SE33</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>2059748</v>
+        <v>519760</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>PL62</t>
+          <t>SI03</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>1408415</v>
+        <v>1089717</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>PL63</t>
+          <t>SI04</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>2294926</v>
+        <v>977163</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>PL71</t>
+          <t>SK01</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>2462448</v>
+        <v>650838</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>PL72</t>
+          <t>SK02</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>1232016</v>
+        <v>1828428</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>PL81</t>
+          <t>SK03</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>2105442</v>
+        <v>1340811</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>PL82</t>
+          <t>SK04</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>2085877</v>
+        <v>1623043</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>PL84</t>
+          <t>UKC1</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>1154856</v>
+        <v>1197992</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>PL91</t>
+          <t>UKC2</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>3025034</v>
+        <v>1450223</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>PL92</t>
+          <t>UKD1</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>2334793</v>
+        <v>498216</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>PT11</t>
+          <t>UKD3</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>3576205</v>
+        <v>2808080</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>PT15</t>
+          <t>UKD4</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>439617</v>
+        <v>1490434</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>PT16</t>
+          <t>UKD6</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>2231346</v>
+        <v>927799</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>PT17</t>
+          <t>UKD7</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>2833679</v>
+        <v>1547607</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>PT18</t>
+          <t>UKE1</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>711950</v>
+        <v>931065</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>PT20</t>
+          <t>UKE2</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>243862</v>
+        <v>820874</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>PT30</t>
+          <t>UKE3</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>254368</v>
+        <v>1397266</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>RO11</t>
+          <t>UKE4</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>2560822</v>
+        <v>2313390</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>RO12</t>
+          <t>UKF1</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>2325747</v>
+        <v>2199851</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>RO21</t>
+          <t>UKF2</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>3221183</v>
+        <v>1828762</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>RO22</t>
+          <t>UKF3</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>2421957</v>
+        <v>752671</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>RO31</t>
+          <t>UKG1</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>2965205</v>
+        <v>1344393</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>RO32</t>
+          <t>UKG2</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>2301255</v>
+        <v>1619877</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>RO41</t>
+          <t>UKG3</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>1949940</v>
+        <v>2908821</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>RO42</t>
+          <t>UKH1</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>1784522</v>
+        <v>2509078</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>RS11</t>
+          <t>UKH2</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>1688466</v>
+        <v>1859787</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>RS12</t>
+          <t>UKH3</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>1866815</v>
+        <v>1828948</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>RS21</t>
+          <t>UKI3</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>1932780</v>
+        <v>1173602</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>RS22</t>
+          <t>UKI4</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>1513383</v>
+        <v>2402934</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>SE11</t>
+          <t>UKI5</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>2308143</v>
+        <v>1924106</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>SE12</t>
+          <t>UKI6</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>1687810</v>
+        <v>1308866</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>SE21</t>
+          <t>UKI7</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>856887</v>
+        <v>2090315</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>SE22</t>
+          <t>UKJ1</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>1504060</v>
+        <v>2402507</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>SE23</t>
+          <t>UKJ2</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>2015607</v>
+        <v>2892767</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>SE31</t>
+          <t>UKJ3</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>852201</v>
+        <v>1985074</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>SE32</t>
+          <t>UKJ4</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>375774</v>
+        <v>1840563</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>SE33</t>
+          <t>UKK1</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>519760</v>
+        <v>2496022</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>SI03</t>
+          <t>UKK2</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>1089717</v>
+        <v>1329868</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>SI04</t>
+          <t>UKK3</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>977163</v>
+        <v>564588</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>SK01</t>
+          <t>UKK4</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>650838</v>
+        <v>1187825</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>SK02</t>
+          <t>UKL1</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>1828428</v>
+        <v>1963646</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>SK03</t>
+          <t>UKL2</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>1340811</v>
+        <v>1162876</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>SK04</t>
+          <t>UKM5</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>1623043</v>
+        <v>494624</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>UKC1</t>
+          <t>UKM6</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>1197992</v>
+        <v>470743</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>UKC2</t>
+          <t>UKM7</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>1450223</v>
+        <v>1988307</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>UKD1</t>
+          <t>UKM8</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>498216</v>
+        <v>1536415</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>UKD3</t>
+          <t>UKM9</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>2808080</v>
+        <v>946837</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>UKD4</t>
+          <t>UKN0</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>1490434</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>UKD6</t>
-        </is>
-      </c>
-      <c r="B306" t="n">
-        <v>927799</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>UKD7</t>
-        </is>
-      </c>
-      <c r="B307" t="n">
-        <v>1547607</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>UKE1</t>
-        </is>
-      </c>
-      <c r="B308" t="n">
-        <v>931065</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>UKE2</t>
-        </is>
-      </c>
-      <c r="B309" t="n">
-        <v>820874</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>UKE3</t>
-        </is>
-      </c>
-      <c r="B310" t="n">
-        <v>1397266</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>UKE4</t>
-        </is>
-      </c>
-      <c r="B311" t="n">
-        <v>2313390</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>UKF1</t>
-        </is>
-      </c>
-      <c r="B312" t="n">
-        <v>2199851</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>UKF2</t>
-        </is>
-      </c>
-      <c r="B313" t="n">
-        <v>1828762</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>UKF3</t>
-        </is>
-      </c>
-      <c r="B314" t="n">
-        <v>752671</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>UKG1</t>
-        </is>
-      </c>
-      <c r="B315" t="n">
-        <v>1344393</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>UKG2</t>
-        </is>
-      </c>
-      <c r="B316" t="n">
-        <v>1619877</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>UKG3</t>
-        </is>
-      </c>
-      <c r="B317" t="n">
-        <v>2908821</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>UKH1</t>
-        </is>
-      </c>
-      <c r="B318" t="n">
-        <v>2509078</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>UKH2</t>
-        </is>
-      </c>
-      <c r="B319" t="n">
-        <v>1859787</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>UKH3</t>
-        </is>
-      </c>
-      <c r="B320" t="n">
-        <v>1828948</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>UKI3</t>
-        </is>
-      </c>
-      <c r="B321" t="n">
-        <v>1173602</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>UKI4</t>
-        </is>
-      </c>
-      <c r="B322" t="n">
-        <v>2402934</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>UKI5</t>
-        </is>
-      </c>
-      <c r="B323" t="n">
-        <v>1924106</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>UKI6</t>
-        </is>
-      </c>
-      <c r="B324" t="n">
-        <v>1308866</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>UKI7</t>
-        </is>
-      </c>
-      <c r="B325" t="n">
-        <v>2090315</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>UKJ1</t>
-        </is>
-      </c>
-      <c r="B326" t="n">
-        <v>2402507</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>UKJ2</t>
-        </is>
-      </c>
-      <c r="B327" t="n">
-        <v>2892767</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>UKJ3</t>
-        </is>
-      </c>
-      <c r="B328" t="n">
-        <v>1985074</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>UKJ4</t>
-        </is>
-      </c>
-      <c r="B329" t="n">
-        <v>1840563</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>UKK1</t>
-        </is>
-      </c>
-      <c r="B330" t="n">
-        <v>2496022</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>UKK2</t>
-        </is>
-      </c>
-      <c r="B331" t="n">
-        <v>1329868</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>UKK3</t>
-        </is>
-      </c>
-      <c r="B332" t="n">
-        <v>564588</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>UKK4</t>
-        </is>
-      </c>
-      <c r="B333" t="n">
-        <v>1187825</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>UKL1</t>
-        </is>
-      </c>
-      <c r="B334" t="n">
-        <v>1963646</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>UKL2</t>
-        </is>
-      </c>
-      <c r="B335" t="n">
-        <v>1162876</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>UKM2</t>
-        </is>
-      </c>
-      <c r="B336" t="n">
-        <v>2047454.37</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>UKM3</t>
-        </is>
-      </c>
-      <c r="B337" t="n">
-        <v>2313084.94</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>UKM5</t>
-        </is>
-      </c>
-      <c r="B338" t="n">
-        <v>494624</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>UKM6</t>
-        </is>
-      </c>
-      <c r="B339" t="n">
-        <v>470743</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>UKM7</t>
-        </is>
-      </c>
-      <c r="B340" t="n">
-        <v>1988307</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>UKM8</t>
-        </is>
-      </c>
-      <c r="B341" t="n">
-        <v>1536415</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>UKM9</t>
-        </is>
-      </c>
-      <c r="B342" t="n">
-        <v>946837</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>UKN0</t>
-        </is>
-      </c>
-      <c r="B343" t="n">
         <v>1875957</v>
       </c>
     </row>
